--- a/plot info.xlsx
+++ b/plot info.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malek\Documents\GitHub\Barbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekbenghorbel/Documents/GitHub/Barbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C18947F-691D-4483-BFE5-6A37A1A3C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB15703-52CD-5544-AE06-62BFB98C62F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
-    <sheet name="max_depth=1" sheetId="1" r:id="rId2"/>
-    <sheet name="max_depth=2" sheetId="2" r:id="rId3"/>
-    <sheet name="max_depth=3" sheetId="3" r:id="rId4"/>
-    <sheet name="max_depth=4" sheetId="4" r:id="rId5"/>
-    <sheet name="max_depth=5" sheetId="5" r:id="rId6"/>
-    <sheet name="max_depth=6" sheetId="6" r:id="rId7"/>
-    <sheet name="max_depth=7" sheetId="7" r:id="rId8"/>
-    <sheet name="max_depth=8" sheetId="8" r:id="rId9"/>
-    <sheet name="max_depth=9" sheetId="9" r:id="rId10"/>
-    <sheet name="max_depth=10" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
+    <sheet name="MEM_PLOT_INFO" sheetId="11" r:id="rId2"/>
+    <sheet name="max_depth=1" sheetId="1" r:id="rId3"/>
+    <sheet name="max_depth=2" sheetId="2" r:id="rId4"/>
+    <sheet name="max_depth=3" sheetId="3" r:id="rId5"/>
+    <sheet name="max_depth=4" sheetId="4" r:id="rId6"/>
+    <sheet name="max_depth=5" sheetId="5" r:id="rId7"/>
+    <sheet name="max_depth=6" sheetId="6" r:id="rId8"/>
+    <sheet name="max_depth=7" sheetId="7" r:id="rId9"/>
+    <sheet name="max_depth=8" sheetId="8" r:id="rId10"/>
+    <sheet name="max_depth=9" sheetId="9" r:id="rId11"/>
+    <sheet name="max_depth=10" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>Average Memory Usage (MB)</t>
   </si>
@@ -86,12 +87,18 @@
   <si>
     <t>Max_depth = 10</t>
   </si>
+  <si>
+    <t>Average State Number</t>
+  </si>
+  <si>
+    <t>Peak State Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,9 +110,17 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,12 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,179 +447,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF055-11E0-4D77-9E8A-FC2004B09BE0}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0FEB3-761B-5B4C-87E8-9551A9B6A678}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>124.88084672737527</v>
-      </c>
-      <c r="C2" s="2">
-        <v>127.158984375</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.35310070514678954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>124.05782781862744</v>
-      </c>
-      <c r="C3" s="2">
-        <v>126.29531249999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.12720932960510253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>3.7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>125.42825849931319</v>
-      </c>
-      <c r="C4" s="2">
-        <v>127.744140625</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.31093196868896483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>130.55725937802359</v>
-      </c>
-      <c r="C5" s="2">
-        <v>133.28398437499999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.822313380241394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>129.62758260262837</v>
-      </c>
-      <c r="C6" s="2">
-        <v>132.17734375000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.85892865657806394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>269</v>
+      </c>
+      <c r="D6">
+        <v>255765.3</v>
+      </c>
+      <c r="E6">
+        <v>978465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>148.49690432725782</v>
-      </c>
-      <c r="C7" s="2">
-        <v>154.599609375</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.8780478477478031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>61.7</v>
+      </c>
+      <c r="C7">
+        <v>283</v>
+      </c>
+      <c r="D7">
+        <v>191488.5</v>
+      </c>
+      <c r="E7">
+        <v>646174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>207.89189731195074</v>
-      </c>
-      <c r="C8" s="2">
-        <v>256.15781249999998</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26.222648406028746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8">
+        <v>365</v>
+      </c>
+      <c r="C8">
+        <v>3211</v>
+      </c>
+      <c r="D8">
+        <v>2509.1999999999998</v>
+      </c>
+      <c r="E8">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>232.87254215699727</v>
-      </c>
-      <c r="C9" s="2">
-        <v>299.14921874999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>42.943960642814638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9">
+        <v>913.3</v>
+      </c>
+      <c r="C9">
+        <v>5828</v>
+      </c>
+      <c r="D9">
+        <v>5723.3</v>
+      </c>
+      <c r="E9">
+        <v>55425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>859.62399372621621</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2301.109375</v>
-      </c>
-      <c r="D10" s="2">
-        <v>581.86730170249939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>92022.68</v>
+      </c>
+      <c r="C10">
+        <v>344330.4</v>
+      </c>
+      <c r="D10">
+        <v>4627.1000000000004</v>
+      </c>
+      <c r="E10">
+        <v>31117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>1098.7773007960377</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3383.6710937500002</v>
-      </c>
-      <c r="D11" s="2">
-        <v>584.53863134384153</v>
+      <c r="D11">
+        <f>AVERAGE(D6:D10)</f>
+        <v>92022.68</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(E6:E10)</f>
+        <v>344330.4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3CCB0-BFF5-4EAE-A518-BF81F1D8DBCA}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>271.15463974518218</v>
+      </c>
+      <c r="B2">
+        <v>417.546875</v>
+      </c>
+      <c r="C2">
+        <v>137.14484286308291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>229.63971959786821</v>
+      </c>
+      <c r="B3">
+        <v>417.625</v>
+      </c>
+      <c r="C3">
+        <v>48.444616556167603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>224.3369979816639</v>
+      </c>
+      <c r="B4">
+        <v>264.79296875</v>
+      </c>
+      <c r="C4">
+        <v>65.391921997070312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>212.93168218085111</v>
+      </c>
+      <c r="B5">
+        <v>264.796875</v>
+      </c>
+      <c r="C5">
+        <v>9.7889735698699951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>255.4360906862745</v>
+      </c>
+      <c r="B6">
+        <v>352.27734375</v>
+      </c>
+      <c r="C6">
+        <v>97.860904455184937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>261.38671875</v>
+      </c>
+      <c r="B7">
+        <v>352.28515625</v>
+      </c>
+      <c r="C7">
+        <v>0.44538211822509771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>227.23742711370261</v>
+      </c>
+      <c r="B8">
+        <v>249.1484375</v>
+      </c>
+      <c r="C8">
+        <v>12.596473932266241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>218.8125</v>
+      </c>
+      <c r="B9">
+        <v>222.421875</v>
+      </c>
+      <c r="C9">
+        <v>3.0584573745727539E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>214.7997804752066</v>
+      </c>
+      <c r="B10">
+        <v>217.55078125</v>
+      </c>
+      <c r="C10">
+        <v>13.236025333404539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>212.98986503922379</v>
+      </c>
+      <c r="B11">
+        <v>233.046875</v>
+      </c>
+      <c r="C11">
+        <v>44.499881029129028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>232.87254215699727</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
+        <v>299.14921874999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>42.943960642814638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ABD6F8-1D99-4695-A0C5-E7C5AF48AE66}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -611,9 +775,9 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010.3111888713249</v>
       </c>
@@ -635,7 +799,7 @@
         <v>1613.074273586273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>247.5477901785714</v>
       </c>
@@ -646,7 +810,7 @@
         <v>27.89337062835693</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>214.63226512738851</v>
       </c>
@@ -657,7 +821,7 @@
         <v>12.68023252487183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>193.61145643248179</v>
       </c>
@@ -668,7 +832,7 @@
         <v>5.893488883972168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1632.0172680213141</v>
       </c>
@@ -679,7 +843,7 @@
         <v>1249.7951428890231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>859.62399372621621</v>
@@ -698,7 +862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49339928-1083-40D3-8E48-1F77A6F43104}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -706,14 +870,14 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101.51304472477059</v>
       </c>
@@ -735,7 +899,7 @@
         <v>1.800178050994873</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1661.141578578121</v>
       </c>
@@ -746,7 +910,7 @@
         <v>1075.154393434525</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>772.62174479166663</v>
       </c>
@@ -757,7 +921,7 @@
         <v>1.188568592071533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2667.1930826629741</v>
       </c>
@@ -768,7 +932,7 @@
         <v>1835.9120576381681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>291.41705322265619</v>
       </c>
@@ -779,7 +943,7 @@
         <v>8.6379590034484863</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>1098.7773007960377</v>
@@ -799,6 +963,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF055-11E0-4D77-9E8A-FC2004B09BE0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>124.88084672737527</v>
+      </c>
+      <c r="C2" s="2">
+        <v>127.158984375</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.35310070514678954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>124.05782781862744</v>
+      </c>
+      <c r="C3" s="2">
+        <v>126.29531249999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.12720932960510253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>125.42825849931319</v>
+      </c>
+      <c r="C4" s="2">
+        <v>127.744140625</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.31093196868896483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>130.55725937802359</v>
+      </c>
+      <c r="C5" s="2">
+        <v>133.28398437499999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.822313380241394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>129.62758260262837</v>
+      </c>
+      <c r="C6" s="2">
+        <v>132.17734375000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85892865657806394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>148.49690432725782</v>
+      </c>
+      <c r="C7" s="2">
+        <v>154.599609375</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.8780478477478031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>207.89189731195074</v>
+      </c>
+      <c r="C8" s="2">
+        <v>256.15781249999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>26.222648406028746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>232.87254215699727</v>
+      </c>
+      <c r="C9" s="2">
+        <v>299.14921874999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42.943960642814638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>859.62399372621621</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2301.109375</v>
+      </c>
+      <c r="D10" s="2">
+        <v>581.86730170249939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1098.7773007960377</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3383.6710937500002</v>
+      </c>
+      <c r="D11" s="2">
+        <v>584.53863134384153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -806,9 +1143,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103.515824044586</v>
       </c>
@@ -830,7 +1167,7 @@
         <v>2.5787630081176758</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>126.28515625</v>
       </c>
@@ -841,7 +1178,7 @@
         <v>2.5877475738525391E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>127.3203125</v>
       </c>
@@ -852,7 +1189,7 @@
         <v>5.957484245300293E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>127.3359375</v>
       </c>
@@ -863,7 +1200,7 @@
         <v>3.8029670715332031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>127.337890625</v>
       </c>
@@ -874,7 +1211,7 @@
         <v>0.1208817958831787</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>127.3701171875</v>
       </c>
@@ -885,7 +1222,7 @@
         <v>0.21131038665771479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>127.38671875</v>
       </c>
@@ -896,7 +1233,7 @@
         <v>8.9477062225341797E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>127.41015625</v>
       </c>
@@ -907,7 +1244,7 @@
         <v>0.14193463325500491</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>127.4166666666667</v>
       </c>
@@ -918,7 +1255,7 @@
         <v>0.14473795890808111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>127.4296875</v>
       </c>
@@ -929,7 +1266,7 @@
         <v>0.1204202175140381</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.88084672737527</v>
@@ -948,7 +1285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249203A-C201-42FA-A51D-8854FB04119B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -956,9 +1293,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>102.9968979779412</v>
       </c>
@@ -980,7 +1317,7 @@
         <v>0.61830663681030273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>125.21484375</v>
       </c>
@@ -991,7 +1328,7 @@
         <v>3.2149314880371087E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>126.314453125</v>
       </c>
@@ -1002,7 +1339,7 @@
         <v>3.102874755859375E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>126.349609375</v>
       </c>
@@ -1013,7 +1350,7 @@
         <v>5.9426069259643548E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>126.41015625</v>
       </c>
@@ -1024,7 +1361,7 @@
         <v>0.1072630882263184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>126.46484375</v>
       </c>
@@ -1035,7 +1372,7 @@
         <v>1.549577713012695E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>126.501953125</v>
       </c>
@@ -1046,7 +1383,7 @@
         <v>4.5912981033325202E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>126.625</v>
       </c>
@@ -1057,7 +1394,7 @@
         <v>0.22098541259765619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>126.8359375</v>
       </c>
@@ -1068,7 +1405,7 @@
         <v>5.7319879531860352E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>126.8645833333333</v>
       </c>
@@ -1079,7 +1416,7 @@
         <v>8.4205389022827148E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.05782781862744</v>
@@ -1098,7 +1435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1389ED7-74A4-463E-AA6C-0639DDB8CFD5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1106,9 +1443,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103.6494419642857</v>
       </c>
@@ -1130,7 +1467,7 @@
         <v>0.64634561538696289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>125.98828125</v>
       </c>
@@ -1141,7 +1478,7 @@
         <v>0.16704487800598139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>126.7825520833333</v>
       </c>
@@ -1152,7 +1489,7 @@
         <v>0.12557363510131839</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>126.9557291666667</v>
       </c>
@@ -1163,7 +1500,7 @@
         <v>0.18551802635192871</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>127.096484375</v>
       </c>
@@ -1174,7 +1511,7 @@
         <v>0.31809353828430181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>127.8120492788462</v>
       </c>
@@ -1185,7 +1522,7 @@
         <v>1.0785951614379881</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>128.671875</v>
       </c>
@@ -1196,7 +1533,7 @@
         <v>1.7866849899291989E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>129.107421875</v>
       </c>
@@ -1207,7 +1544,7 @@
         <v>6.3359260559082031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>129.109375</v>
       </c>
@@ -1218,7 +1555,7 @@
         <v>8.8503360748291016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>129.109375</v>
       </c>
@@ -1229,7 +1566,7 @@
         <v>0.41841936111450201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>125.42825849931319</v>
@@ -1248,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A5CCC-0494-4C5A-8CC7-B565D9FE558C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1256,9 +1593,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>107.204738451087</v>
       </c>
@@ -1280,7 +1617,7 @@
         <v>0.99643707275390625</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>127.8821824596774</v>
       </c>
@@ -1291,7 +1628,7 @@
         <v>1.490606307983398</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>129.65494791666671</v>
       </c>
@@ -1302,7 +1639,7 @@
         <v>0.1040337085723877</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>129.96875</v>
       </c>
@@ -1313,7 +1650,7 @@
         <v>9.0581655502319336E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>132.5342839805825</v>
       </c>
@@ -1324,7 +1661,7 @@
         <v>4.3286480903625488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>135.52256944444451</v>
       </c>
@@ -1335,7 +1672,7 @@
         <v>0.41007804870605469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>135.27734375</v>
       </c>
@@ -1346,7 +1683,7 @@
         <v>1.929521560668945E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>135.72005208333329</v>
       </c>
@@ -1357,7 +1694,7 @@
         <v>0.26069545745849609</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>135.89366319444451</v>
       </c>
@@ -1368,7 +1705,7 @@
         <v>0.5008537769317627</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>135.9140625</v>
       </c>
@@ -1379,7 +1716,7 @@
         <v>2.190446853637695E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>130.55725937802359</v>
@@ -1398,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AE7D61-15CB-49BA-8326-020CEECDDEED}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1406,9 +1743,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>104.0916883680556</v>
       </c>
@@ -1430,7 +1767,7 @@
         <v>0.65183591842651367</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>129.53960640822791</v>
       </c>
@@ -1441,7 +1778,7 @@
         <v>3.1973533630371089</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>132.71835937500001</v>
       </c>
@@ -1452,7 +1789,7 @@
         <v>0.65935254096984863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>132.818359375</v>
       </c>
@@ -1463,7 +1800,7 @@
         <v>0.67862606048583984</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>132.82421875</v>
       </c>
@@ -1474,7 +1811,7 @@
         <v>7.3082685470581055E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>132.82421875</v>
       </c>
@@ -1485,7 +1822,7 @@
         <v>0.89425396919250488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>132.82421875</v>
       </c>
@@ -1496,7 +1833,7 @@
         <v>0.37753605842590332</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>132.82421875</v>
       </c>
@@ -1507,7 +1844,7 @@
         <v>0.65785551071166992</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>132.82421875</v>
       </c>
@@ -1518,7 +1855,7 @@
         <v>1.279673099517822</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>132.98671874999999</v>
       </c>
@@ -1529,7 +1866,7 @@
         <v>0.11971735954284669</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>129.62758260262837</v>
@@ -1548,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6198DC14-EBC2-4EB2-B2A5-61C7101CF581}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1556,14 +1893,14 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>115.76706112132349</v>
       </c>
@@ -1585,7 +1922,7 @@
         <v>2.3069319725036621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>130.93283420138891</v>
       </c>
@@ -1596,7 +1933,7 @@
         <v>1.291573286056519</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>131.0005326704545</v>
       </c>
@@ -1607,7 +1944,7 @@
         <v>0.83164119720458984</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>153.48050742574259</v>
       </c>
@@ -1618,7 +1955,7 @@
         <v>22.17168116569519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>168.0390625</v>
       </c>
@@ -1629,7 +1966,7 @@
         <v>4.6981573104858398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>162.53133138020829</v>
       </c>
@@ -1640,7 +1977,7 @@
         <v>1.7872188091278081</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>161.5482286509901</v>
       </c>
@@ -1651,7 +1988,7 @@
         <v>3.979996919631958</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>155.71412970430109</v>
       </c>
@@ -1662,7 +1999,7 @@
         <v>3.269960880279541</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>152.06640625</v>
       </c>
@@ -1673,7 +2010,7 @@
         <v>2.4717569351196289E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>153.88894936816939</v>
       </c>
@@ -1684,7 +2021,7 @@
         <v>13.06977510452271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>148.49690432725782</v>
@@ -1703,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2EA72-09FB-4E1A-9252-5EFDF43FDFE1}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1711,9 +2048,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>122.12702287946431</v>
       </c>
@@ -1735,7 +2072,7 @@
         <v>3.9802618026733398</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>133.64757582720591</v>
       </c>
@@ -1746,7 +2083,7 @@
         <v>5.417022705078125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>226.19940342188201</v>
       </c>
@@ -1757,7 +2094,7 @@
         <v>86.243100881576538</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>254.14453125</v>
       </c>
@@ -1768,7 +2105,7 @@
         <v>0.20751953125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>235.7843050373134</v>
       </c>
@@ -1779,7 +2116,7 @@
         <v>72.317363023757935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>220.82477678571431</v>
       </c>
@@ -1790,7 +2127,7 @@
         <v>8.620492696762085</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>201.63671875</v>
       </c>
@@ -1801,7 +2138,7 @@
         <v>0.63227128982543945</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>198.49157072368419</v>
       </c>
@@ -1812,7 +2149,7 @@
         <v>0.87636160850524902</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240.91623940012559</v>
       </c>
@@ -1823,7 +2160,7 @@
         <v>83.289134740829468</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>245.14682904411771</v>
       </c>
@@ -1834,7 +2171,7 @@
         <v>0.64295578002929688</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>207.89189731195074</v>
@@ -1846,156 +2183,6 @@
       <c r="C12">
         <f t="shared" si="0"/>
         <v>26.222648406028746</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3CCB0-BFF5-4EAE-A518-BF81F1D8DBCA}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>271.15463974518218</v>
-      </c>
-      <c r="B2">
-        <v>417.546875</v>
-      </c>
-      <c r="C2">
-        <v>137.14484286308291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>229.63971959786821</v>
-      </c>
-      <c r="B3">
-        <v>417.625</v>
-      </c>
-      <c r="C3">
-        <v>48.444616556167603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>224.3369979816639</v>
-      </c>
-      <c r="B4">
-        <v>264.79296875</v>
-      </c>
-      <c r="C4">
-        <v>65.391921997070313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>212.93168218085111</v>
-      </c>
-      <c r="B5">
-        <v>264.796875</v>
-      </c>
-      <c r="C5">
-        <v>9.7889735698699951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>255.4360906862745</v>
-      </c>
-      <c r="B6">
-        <v>352.27734375</v>
-      </c>
-      <c r="C6">
-        <v>97.860904455184937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>261.38671875</v>
-      </c>
-      <c r="B7">
-        <v>352.28515625</v>
-      </c>
-      <c r="C7">
-        <v>0.44538211822509771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>227.23742711370261</v>
-      </c>
-      <c r="B8">
-        <v>249.1484375</v>
-      </c>
-      <c r="C8">
-        <v>12.596473932266241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>218.8125</v>
-      </c>
-      <c r="B9">
-        <v>222.421875</v>
-      </c>
-      <c r="C9">
-        <v>3.0584573745727539E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>214.7997804752066</v>
-      </c>
-      <c r="B10">
-        <v>217.55078125</v>
-      </c>
-      <c r="C10">
-        <v>13.236025333404539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>212.98986503922379</v>
-      </c>
-      <c r="B11">
-        <v>233.046875</v>
-      </c>
-      <c r="C11">
-        <v>44.499881029129028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>AVERAGE(A2:A11)</f>
-        <v>232.87254215699727</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
-        <v>299.14921874999999</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>42.943960642814638</v>
       </c>
     </row>
   </sheetData>

--- a/plot info.xlsx
+++ b/plot info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekbenghorbel/Documents/GitHub/Barbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malek\Documents\GitHub\Barbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB15703-52CD-5544-AE06-62BFB98C62F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6375766-8867-4C4D-94EE-4FAE28077816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-45" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -448,20 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0FEB3-761B-5B4C-87E8-9551A9B6A678}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -470,146 +470,114 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>4.38</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.7</v>
+        <v>16.52</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>10.199999999999999</v>
+        <v>49.1</v>
       </c>
       <c r="C4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>19.399999999999999</v>
+        <v>220.18</v>
       </c>
       <c r="C5">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>1343.98</v>
       </c>
       <c r="C6">
-        <v>269</v>
-      </c>
-      <c r="D6">
-        <v>255765.3</v>
-      </c>
-      <c r="E6">
-        <v>978465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>61.7</v>
+        <v>4553.78</v>
       </c>
       <c r="C7">
-        <v>283</v>
-      </c>
-      <c r="D7">
-        <v>191488.5</v>
-      </c>
-      <c r="E7">
-        <v>646174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>365</v>
+        <v>34339.14</v>
       </c>
       <c r="C8">
-        <v>3211</v>
-      </c>
-      <c r="D8">
-        <v>2509.1999999999998</v>
-      </c>
-      <c r="E8">
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>512556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>913.3</v>
+        <v>106574.52</v>
       </c>
       <c r="C9">
-        <v>5828</v>
-      </c>
-      <c r="D9">
-        <v>5723.3</v>
-      </c>
-      <c r="E9">
-        <v>55425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1947905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>92022.68</v>
+        <v>280048.86</v>
       </c>
       <c r="C10">
-        <v>344330.4</v>
-      </c>
-      <c r="D10">
-        <v>4627.1000000000004</v>
-      </c>
-      <c r="E10">
-        <v>31117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7154951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <f>AVERAGE(D6:D10)</f>
-        <v>92022.68</v>
-      </c>
-      <c r="E11">
-        <f>AVERAGE(E6:E10)</f>
-        <v>344330.4</v>
+      <c r="B11">
+        <v>822951.88</v>
+      </c>
+      <c r="C11">
+        <v>5926059</v>
       </c>
     </row>
   </sheetData>
@@ -625,9 +593,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>271.15463974518218</v>
       </c>
@@ -649,7 +617,7 @@
         <v>137.14484286308291</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>229.63971959786821</v>
       </c>
@@ -660,7 +628,7 @@
         <v>48.444616556167603</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>224.3369979816639</v>
       </c>
@@ -668,10 +636,10 @@
         <v>264.79296875</v>
       </c>
       <c r="C4">
-        <v>65.391921997070312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65.391921997070313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>212.93168218085111</v>
       </c>
@@ -682,7 +650,7 @@
         <v>9.7889735698699951</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>255.4360906862745</v>
       </c>
@@ -693,7 +661,7 @@
         <v>97.860904455184937</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>261.38671875</v>
       </c>
@@ -704,7 +672,7 @@
         <v>0.44538211822509771</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>227.23742711370261</v>
       </c>
@@ -715,7 +683,7 @@
         <v>12.596473932266241</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>218.8125</v>
       </c>
@@ -726,7 +694,7 @@
         <v>3.0584573745727539E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>214.7997804752066</v>
       </c>
@@ -737,7 +705,7 @@
         <v>13.236025333404539</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>212.98986503922379</v>
       </c>
@@ -748,7 +716,7 @@
         <v>44.499881029129028</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>232.87254215699727</v>
@@ -775,9 +743,9 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010.3111888713249</v>
       </c>
@@ -799,7 +767,7 @@
         <v>1613.074273586273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>247.5477901785714</v>
       </c>
@@ -810,7 +778,7 @@
         <v>27.89337062835693</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>214.63226512738851</v>
       </c>
@@ -821,7 +789,7 @@
         <v>12.68023252487183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>193.61145643248179</v>
       </c>
@@ -832,7 +800,7 @@
         <v>5.893488883972168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1632.0172680213141</v>
       </c>
@@ -843,7 +811,7 @@
         <v>1249.7951428890231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>859.62399372621621</v>
@@ -870,14 +838,14 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101.51304472477059</v>
       </c>
@@ -899,7 +867,7 @@
         <v>1.800178050994873</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1661.141578578121</v>
       </c>
@@ -910,7 +878,7 @@
         <v>1075.154393434525</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>772.62174479166663</v>
       </c>
@@ -921,7 +889,7 @@
         <v>1.188568592071533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2667.1930826629741</v>
       </c>
@@ -932,7 +900,7 @@
         <v>1835.9120576381681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>291.41705322265619</v>
       </c>
@@ -943,7 +911,7 @@
         <v>8.6379590034484863</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>1098.7773007960377</v>
@@ -967,18 +935,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +971,7 @@
         <v>0.35310070514678954</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +985,7 @@
         <v>0.12720932960510253</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +999,7 @@
         <v>0.31093196868896483</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1013,7 @@
         <v>0.822313380241394</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1027,7 @@
         <v>0.85892865657806394</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1041,7 @@
         <v>4.8780478477478031</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1055,7 @@
         <v>26.222648406028746</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1069,7 @@
         <v>42.943960642814638</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1083,7 @@
         <v>581.86730170249939</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1143,9 +1111,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>103.515824044586</v>
       </c>
@@ -1167,7 +1135,7 @@
         <v>2.5787630081176758</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>126.28515625</v>
       </c>
@@ -1178,7 +1146,7 @@
         <v>2.5877475738525391E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>127.3203125</v>
       </c>
@@ -1189,7 +1157,7 @@
         <v>5.957484245300293E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>127.3359375</v>
       </c>
@@ -1200,7 +1168,7 @@
         <v>3.8029670715332031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>127.337890625</v>
       </c>
@@ -1211,7 +1179,7 @@
         <v>0.1208817958831787</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>127.3701171875</v>
       </c>
@@ -1222,7 +1190,7 @@
         <v>0.21131038665771479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>127.38671875</v>
       </c>
@@ -1233,7 +1201,7 @@
         <v>8.9477062225341797E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>127.41015625</v>
       </c>
@@ -1244,7 +1212,7 @@
         <v>0.14193463325500491</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>127.4166666666667</v>
       </c>
@@ -1255,7 +1223,7 @@
         <v>0.14473795890808111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>127.4296875</v>
       </c>
@@ -1266,7 +1234,7 @@
         <v>0.1204202175140381</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.88084672737527</v>
@@ -1293,9 +1261,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>102.9968979779412</v>
       </c>
@@ -1317,7 +1285,7 @@
         <v>0.61830663681030273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125.21484375</v>
       </c>
@@ -1328,7 +1296,7 @@
         <v>3.2149314880371087E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126.314453125</v>
       </c>
@@ -1339,7 +1307,7 @@
         <v>3.102874755859375E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126.349609375</v>
       </c>
@@ -1350,7 +1318,7 @@
         <v>5.9426069259643548E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>126.41015625</v>
       </c>
@@ -1361,7 +1329,7 @@
         <v>0.1072630882263184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>126.46484375</v>
       </c>
@@ -1372,7 +1340,7 @@
         <v>1.549577713012695E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>126.501953125</v>
       </c>
@@ -1383,7 +1351,7 @@
         <v>4.5912981033325202E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>126.625</v>
       </c>
@@ -1394,7 +1362,7 @@
         <v>0.22098541259765619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>126.8359375</v>
       </c>
@@ -1405,7 +1373,7 @@
         <v>5.7319879531860352E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>126.8645833333333</v>
       </c>
@@ -1416,7 +1384,7 @@
         <v>8.4205389022827148E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.05782781862744</v>
@@ -1443,9 +1411,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>103.6494419642857</v>
       </c>
@@ -1467,7 +1435,7 @@
         <v>0.64634561538696289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125.98828125</v>
       </c>
@@ -1478,7 +1446,7 @@
         <v>0.16704487800598139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126.7825520833333</v>
       </c>
@@ -1489,7 +1457,7 @@
         <v>0.12557363510131839</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126.9557291666667</v>
       </c>
@@ -1500,7 +1468,7 @@
         <v>0.18551802635192871</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>127.096484375</v>
       </c>
@@ -1511,7 +1479,7 @@
         <v>0.31809353828430181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>127.8120492788462</v>
       </c>
@@ -1522,7 +1490,7 @@
         <v>1.0785951614379881</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>128.671875</v>
       </c>
@@ -1533,7 +1501,7 @@
         <v>1.7866849899291989E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>129.107421875</v>
       </c>
@@ -1544,7 +1512,7 @@
         <v>6.3359260559082031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>129.109375</v>
       </c>
@@ -1555,7 +1523,7 @@
         <v>8.8503360748291016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>129.109375</v>
       </c>
@@ -1566,7 +1534,7 @@
         <v>0.41841936111450201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>125.42825849931319</v>
@@ -1593,9 +1561,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>107.204738451087</v>
       </c>
@@ -1617,7 +1585,7 @@
         <v>0.99643707275390625</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>127.8821824596774</v>
       </c>
@@ -1628,7 +1596,7 @@
         <v>1.490606307983398</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>129.65494791666671</v>
       </c>
@@ -1639,7 +1607,7 @@
         <v>0.1040337085723877</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>129.96875</v>
       </c>
@@ -1650,7 +1618,7 @@
         <v>9.0581655502319336E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>132.5342839805825</v>
       </c>
@@ -1661,7 +1629,7 @@
         <v>4.3286480903625488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>135.52256944444451</v>
       </c>
@@ -1672,7 +1640,7 @@
         <v>0.41007804870605469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>135.27734375</v>
       </c>
@@ -1683,7 +1651,7 @@
         <v>1.929521560668945E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>135.72005208333329</v>
       </c>
@@ -1694,7 +1662,7 @@
         <v>0.26069545745849609</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>135.89366319444451</v>
       </c>
@@ -1705,7 +1673,7 @@
         <v>0.5008537769317627</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135.9140625</v>
       </c>
@@ -1716,7 +1684,7 @@
         <v>2.190446853637695E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>130.55725937802359</v>
@@ -1743,9 +1711,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>104.0916883680556</v>
       </c>
@@ -1767,7 +1735,7 @@
         <v>0.65183591842651367</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>129.53960640822791</v>
       </c>
@@ -1778,7 +1746,7 @@
         <v>3.1973533630371089</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>132.71835937500001</v>
       </c>
@@ -1789,7 +1757,7 @@
         <v>0.65935254096984863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>132.818359375</v>
       </c>
@@ -1800,7 +1768,7 @@
         <v>0.67862606048583984</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>132.82421875</v>
       </c>
@@ -1811,7 +1779,7 @@
         <v>7.3082685470581055E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>132.82421875</v>
       </c>
@@ -1822,7 +1790,7 @@
         <v>0.89425396919250488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>132.82421875</v>
       </c>
@@ -1833,7 +1801,7 @@
         <v>0.37753605842590332</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>132.82421875</v>
       </c>
@@ -1844,7 +1812,7 @@
         <v>0.65785551071166992</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>132.82421875</v>
       </c>
@@ -1855,7 +1823,7 @@
         <v>1.279673099517822</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>132.98671874999999</v>
       </c>
@@ -1866,7 +1834,7 @@
         <v>0.11971735954284669</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>129.62758260262837</v>
@@ -1893,14 +1861,14 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>115.76706112132349</v>
       </c>
@@ -1922,7 +1890,7 @@
         <v>2.3069319725036621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>130.93283420138891</v>
       </c>
@@ -1933,7 +1901,7 @@
         <v>1.291573286056519</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>131.0005326704545</v>
       </c>
@@ -1944,7 +1912,7 @@
         <v>0.83164119720458984</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>153.48050742574259</v>
       </c>
@@ -1955,7 +1923,7 @@
         <v>22.17168116569519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>168.0390625</v>
       </c>
@@ -1966,7 +1934,7 @@
         <v>4.6981573104858398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>162.53133138020829</v>
       </c>
@@ -1977,7 +1945,7 @@
         <v>1.7872188091278081</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161.5482286509901</v>
       </c>
@@ -1988,7 +1956,7 @@
         <v>3.979996919631958</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>155.71412970430109</v>
       </c>
@@ -1999,7 +1967,7 @@
         <v>3.269960880279541</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>152.06640625</v>
       </c>
@@ -2010,7 +1978,7 @@
         <v>2.4717569351196289E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>153.88894936816939</v>
       </c>
@@ -2021,7 +1989,7 @@
         <v>13.06977510452271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>148.49690432725782</v>
@@ -2048,9 +2016,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>122.12702287946431</v>
       </c>
@@ -2072,7 +2040,7 @@
         <v>3.9802618026733398</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>133.64757582720591</v>
       </c>
@@ -2083,7 +2051,7 @@
         <v>5.417022705078125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>226.19940342188201</v>
       </c>
@@ -2094,7 +2062,7 @@
         <v>86.243100881576538</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>254.14453125</v>
       </c>
@@ -2105,7 +2073,7 @@
         <v>0.20751953125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>235.7843050373134</v>
       </c>
@@ -2116,7 +2084,7 @@
         <v>72.317363023757935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>220.82477678571431</v>
       </c>
@@ -2127,7 +2095,7 @@
         <v>8.620492696762085</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201.63671875</v>
       </c>
@@ -2138,7 +2106,7 @@
         <v>0.63227128982543945</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>198.49157072368419</v>
       </c>
@@ -2149,7 +2117,7 @@
         <v>0.87636160850524902</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>240.91623940012559</v>
       </c>
@@ -2160,7 +2128,7 @@
         <v>83.289134740829468</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>245.14682904411771</v>
       </c>
@@ -2171,7 +2139,7 @@
         <v>0.64295578002929688</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>207.89189731195074</v>

--- a/plot info.xlsx
+++ b/plot info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malek\Documents\GitHub\Barbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekbenghorbel/Documents/GitHub/Barbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6375766-8867-4C4D-94EE-4FAE28077816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7356E1-ADB7-D043-8F47-37510F16A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-45" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="600" windowWidth="14020" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -451,17 +451,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -470,7 +470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -492,7 +492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -514,7 +514,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
         <v>33825</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -536,7 +536,7 @@
         <v>35005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -547,7 +547,7 @@
         <v>512556</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1947905</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -569,15 +569,15 @@
         <v>7154951</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>822951.88</v>
+        <v>1020960.86567164</v>
       </c>
       <c r="C11">
-        <v>5926059</v>
+        <v>8412637</v>
       </c>
     </row>
   </sheetData>
@@ -593,9 +593,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>271.15463974518218</v>
       </c>
@@ -617,7 +617,7 @@
         <v>137.14484286308291</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>229.63971959786821</v>
       </c>
@@ -628,7 +628,7 @@
         <v>48.444616556167603</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>224.3369979816639</v>
       </c>
@@ -636,10 +636,10 @@
         <v>264.79296875</v>
       </c>
       <c r="C4">
-        <v>65.391921997070313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65.391921997070312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>212.93168218085111</v>
       </c>
@@ -650,7 +650,7 @@
         <v>9.7889735698699951</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>255.4360906862745</v>
       </c>
@@ -661,7 +661,7 @@
         <v>97.860904455184937</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>261.38671875</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0.44538211822509771</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>227.23742711370261</v>
       </c>
@@ -683,7 +683,7 @@
         <v>12.596473932266241</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>218.8125</v>
       </c>
@@ -694,7 +694,7 @@
         <v>3.0584573745727539E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>214.7997804752066</v>
       </c>
@@ -705,7 +705,7 @@
         <v>13.236025333404539</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>212.98986503922379</v>
       </c>
@@ -716,7 +716,7 @@
         <v>44.499881029129028</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>232.87254215699727</v>
@@ -743,9 +743,9 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010.3111888713249</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1613.074273586273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>247.5477901785714</v>
       </c>
@@ -778,7 +778,7 @@
         <v>27.89337062835693</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>214.63226512738851</v>
       </c>
@@ -789,7 +789,7 @@
         <v>12.68023252487183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>193.61145643248179</v>
       </c>
@@ -800,7 +800,7 @@
         <v>5.893488883972168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1632.0172680213141</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1249.7951428890231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>859.62399372621621</v>
@@ -838,14 +838,14 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101.51304472477059</v>
       </c>
@@ -867,7 +867,7 @@
         <v>1.800178050994873</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1661.141578578121</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1075.154393434525</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>772.62174479166663</v>
       </c>
@@ -889,7 +889,7 @@
         <v>1.188568592071533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2667.1930826629741</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1835.9120576381681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>291.41705322265619</v>
       </c>
@@ -911,7 +911,7 @@
         <v>8.6379590034484863</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>1098.7773007960377</v>
@@ -938,15 +938,15 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0.35310070514678954</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0.12720932960510253</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0.31093196868896483</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0.822313380241394</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0.85892865657806394</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>4.8780478477478031</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>26.222648406028746</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>42.943960642814638</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>581.86730170249939</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1111,9 +1111,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103.515824044586</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>2.5787630081176758</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>126.28515625</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2.5877475738525391E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>127.3203125</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>5.957484245300293E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>127.3359375</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3.8029670715332031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>127.337890625</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0.1208817958831787</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>127.3701171875</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>0.21131038665771479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>127.38671875</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>8.9477062225341797E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>127.41015625</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0.14193463325500491</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>127.4166666666667</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0.14473795890808111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>127.4296875</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.1204202175140381</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.88084672737527</v>
@@ -1261,9 +1261,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>102.9968979779412</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.61830663681030273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>125.21484375</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>3.2149314880371087E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>126.314453125</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>3.102874755859375E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>126.349609375</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>5.9426069259643548E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>126.41015625</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>0.1072630882263184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>126.46484375</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1.549577713012695E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>126.501953125</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>4.5912981033325202E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>126.625</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.22098541259765619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>126.8359375</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>5.7319879531860352E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>126.8645833333333</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8.4205389022827148E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.05782781862744</v>
@@ -1411,9 +1411,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103.6494419642857</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0.64634561538696289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>125.98828125</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0.16704487800598139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>126.7825520833333</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0.12557363510131839</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>126.9557291666667</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.18551802635192871</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>127.096484375</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0.31809353828430181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>127.8120492788462</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1.0785951614379881</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>128.671875</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1.7866849899291989E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>129.107421875</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>6.3359260559082031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>129.109375</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>8.8503360748291016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>129.109375</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.41841936111450201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>125.42825849931319</v>
@@ -1561,9 +1561,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>107.204738451087</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>0.99643707275390625</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>127.8821824596774</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1.490606307983398</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>129.65494791666671</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0.1040337085723877</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>129.96875</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>9.0581655502319336E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>132.5342839805825</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>4.3286480903625488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>135.52256944444451</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0.41007804870605469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>135.27734375</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1.929521560668945E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>135.72005208333329</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0.26069545745849609</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>135.89366319444451</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0.5008537769317627</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>135.9140625</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>2.190446853637695E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>130.55725937802359</v>
@@ -1711,9 +1711,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>104.0916883680556</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0.65183591842651367</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>129.53960640822791</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>3.1973533630371089</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>132.71835937500001</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>0.65935254096984863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>132.818359375</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0.67862606048583984</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>132.82421875</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7.3082685470581055E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>132.82421875</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0.89425396919250488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>132.82421875</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0.37753605842590332</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>132.82421875</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0.65785551071166992</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>132.82421875</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1.279673099517822</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>132.98671874999999</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0.11971735954284669</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>129.62758260262837</v>
@@ -1861,14 +1861,14 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>115.76706112132349</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>2.3069319725036621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>130.93283420138891</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>1.291573286056519</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>131.0005326704545</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0.83164119720458984</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>153.48050742574259</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>22.17168116569519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>168.0390625</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>4.6981573104858398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>162.53133138020829</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1.7872188091278081</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>161.5482286509901</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>3.979996919631958</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>155.71412970430109</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>3.269960880279541</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>152.06640625</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>2.4717569351196289E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>153.88894936816939</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>13.06977510452271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>148.49690432725782</v>
@@ -2016,9 +2016,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>122.12702287946431</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>3.9802618026733398</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>133.64757582720591</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>5.417022705078125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>226.19940342188201</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>86.243100881576538</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>254.14453125</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0.20751953125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>235.7843050373134</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>72.317363023757935</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>220.82477678571431</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>8.620492696762085</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>201.63671875</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0.63227128982543945</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>198.49157072368419</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0.87636160850524902</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>240.91623940012559</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>83.289134740829468</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>245.14682904411771</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0.64295578002929688</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>207.89189731195074</v>

--- a/plot info.xlsx
+++ b/plot info.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekbenghorbel/Documents/GitHub/Barbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malek\Documents\GitHub\Barbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7356E1-ADB7-D043-8F47-37510F16A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62A5881-6159-4BC3-9E8F-13F64CFD915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="600" windowWidth="14020" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
-    <sheet name="MEM_PLOT_INFO" sheetId="11" r:id="rId2"/>
-    <sheet name="max_depth=1" sheetId="1" r:id="rId3"/>
-    <sheet name="max_depth=2" sheetId="2" r:id="rId4"/>
-    <sheet name="max_depth=3" sheetId="3" r:id="rId5"/>
-    <sheet name="max_depth=4" sheetId="4" r:id="rId6"/>
-    <sheet name="max_depth=5" sheetId="5" r:id="rId7"/>
-    <sheet name="max_depth=6" sheetId="6" r:id="rId8"/>
-    <sheet name="max_depth=7" sheetId="7" r:id="rId9"/>
-    <sheet name="max_depth=8" sheetId="8" r:id="rId10"/>
-    <sheet name="max_depth=9" sheetId="9" r:id="rId11"/>
-    <sheet name="max_depth=10" sheetId="10" r:id="rId12"/>
+    <sheet name="STATE_PLOT_INFO" sheetId="13" r:id="rId2"/>
+    <sheet name="MEM_PLOT_INFO" sheetId="11" r:id="rId3"/>
+    <sheet name="max_depth=1" sheetId="1" r:id="rId4"/>
+    <sheet name="max_depth=2" sheetId="2" r:id="rId5"/>
+    <sheet name="max_depth=3" sheetId="3" r:id="rId6"/>
+    <sheet name="max_depth=4" sheetId="4" r:id="rId7"/>
+    <sheet name="max_depth=5" sheetId="5" r:id="rId8"/>
+    <sheet name="max_depth=6" sheetId="6" r:id="rId9"/>
+    <sheet name="max_depth=7" sheetId="7" r:id="rId10"/>
+    <sheet name="max_depth=8" sheetId="8" r:id="rId11"/>
+    <sheet name="max_depth=9" sheetId="9" r:id="rId12"/>
+    <sheet name="max_depth=10" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>Average Memory Usage (MB)</t>
   </si>
@@ -451,17 +452,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -470,114 +471,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>16.52</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="C3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>49.1</v>
+        <v>78.14</v>
       </c>
       <c r="C4">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>220.18</v>
+        <v>199.24</v>
       </c>
       <c r="C5">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1343.98</v>
+        <v>694.3</v>
       </c>
       <c r="C6">
-        <v>33825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4553.78</v>
+        <v>1804.16</v>
       </c>
       <c r="C7">
-        <v>35005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>34339.14</v>
+        <v>16418.66</v>
       </c>
       <c r="C8">
-        <v>512556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>106574.52</v>
-      </c>
-      <c r="C9">
-        <v>1947905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>280048.86</v>
-      </c>
-      <c r="C10">
-        <v>7154951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1020960.86567164</v>
-      </c>
-      <c r="C11">
-        <v>8412637</v>
       </c>
     </row>
   </sheetData>
@@ -586,6 +569,156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2EA72-09FB-4E1A-9252-5EFDF43FDFE1}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>122.12702287946431</v>
+      </c>
+      <c r="B2">
+        <v>132.93359375</v>
+      </c>
+      <c r="C2">
+        <v>3.9802618026733398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>133.64757582720591</v>
+      </c>
+      <c r="B3">
+        <v>138.01953125</v>
+      </c>
+      <c r="C3">
+        <v>5.417022705078125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>226.19940342188201</v>
+      </c>
+      <c r="B4">
+        <v>321.8359375</v>
+      </c>
+      <c r="C4">
+        <v>86.243100881576538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>254.14453125</v>
+      </c>
+      <c r="B5">
+        <v>321.84765625</v>
+      </c>
+      <c r="C5">
+        <v>0.20751953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>235.7843050373134</v>
+      </c>
+      <c r="B6">
+        <v>296.5234375</v>
+      </c>
+      <c r="C6">
+        <v>72.317363023757935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>220.82477678571431</v>
+      </c>
+      <c r="B7">
+        <v>296.55859375</v>
+      </c>
+      <c r="C7">
+        <v>8.620492696762085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>201.63671875</v>
+      </c>
+      <c r="B8">
+        <v>208.578125</v>
+      </c>
+      <c r="C8">
+        <v>0.63227128982543945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>198.49157072368419</v>
+      </c>
+      <c r="B9">
+        <v>201.0546875</v>
+      </c>
+      <c r="C9">
+        <v>0.87636160850524902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>240.91623940012559</v>
+      </c>
+      <c r="B10">
+        <v>322.0859375</v>
+      </c>
+      <c r="C10">
+        <v>83.289134740829468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>245.14682904411771</v>
+      </c>
+      <c r="B11">
+        <v>322.140625</v>
+      </c>
+      <c r="C11">
+        <v>0.64295578002929688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>207.89189731195074</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
+        <v>256.15781249999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>26.222648406028746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3CCB0-BFF5-4EAE-A518-BF81F1D8DBCA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -593,9 +726,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>271.15463974518218</v>
       </c>
@@ -617,7 +750,7 @@
         <v>137.14484286308291</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>229.63971959786821</v>
       </c>
@@ -628,7 +761,7 @@
         <v>48.444616556167603</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>224.3369979816639</v>
       </c>
@@ -636,10 +769,10 @@
         <v>264.79296875</v>
       </c>
       <c r="C4">
-        <v>65.391921997070312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65.391921997070313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>212.93168218085111</v>
       </c>
@@ -650,7 +783,7 @@
         <v>9.7889735698699951</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>255.4360906862745</v>
       </c>
@@ -661,7 +794,7 @@
         <v>97.860904455184937</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>261.38671875</v>
       </c>
@@ -672,7 +805,7 @@
         <v>0.44538211822509771</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>227.23742711370261</v>
       </c>
@@ -683,7 +816,7 @@
         <v>12.596473932266241</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>218.8125</v>
       </c>
@@ -694,7 +827,7 @@
         <v>3.0584573745727539E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>214.7997804752066</v>
       </c>
@@ -705,7 +838,7 @@
         <v>13.236025333404539</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>212.98986503922379</v>
       </c>
@@ -716,7 +849,7 @@
         <v>44.499881029129028</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>232.87254215699727</v>
@@ -735,7 +868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ABD6F8-1D99-4695-A0C5-E7C5AF48AE66}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -743,9 +876,9 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010.3111888713249</v>
       </c>
@@ -767,7 +900,7 @@
         <v>1613.074273586273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>247.5477901785714</v>
       </c>
@@ -778,7 +911,7 @@
         <v>27.89337062835693</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>214.63226512738851</v>
       </c>
@@ -789,7 +922,7 @@
         <v>12.68023252487183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>193.61145643248179</v>
       </c>
@@ -800,7 +933,7 @@
         <v>5.893488883972168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1632.0172680213141</v>
       </c>
@@ -811,7 +944,7 @@
         <v>1249.7951428890231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>859.62399372621621</v>
@@ -830,7 +963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49339928-1083-40D3-8E48-1F77A6F43104}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -838,14 +971,14 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101.51304472477059</v>
       </c>
@@ -867,7 +1000,7 @@
         <v>1.800178050994873</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1661.141578578121</v>
       </c>
@@ -878,7 +1011,7 @@
         <v>1075.154393434525</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>772.62174479166663</v>
       </c>
@@ -889,7 +1022,7 @@
         <v>1.188568592071533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2667.1930826629741</v>
       </c>
@@ -900,7 +1033,7 @@
         <v>1835.9120576381681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>291.41705322265619</v>
       </c>
@@ -911,7 +1044,7 @@
         <v>8.6379590034484863</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>1098.7773007960377</v>
@@ -931,6 +1064,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6709677-DC1C-427F-8CCF-593B91C1E542}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4.38</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>16.52</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>49.1</v>
+      </c>
+      <c r="C4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>220.18</v>
+      </c>
+      <c r="C5">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1343.98</v>
+      </c>
+      <c r="C6">
+        <v>33825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4553.78</v>
+      </c>
+      <c r="C7">
+        <v>35005</v>
+      </c>
+      <c r="E7">
+        <v>5187.5200000000004</v>
+      </c>
+      <c r="F7">
+        <v>140245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>34339.14</v>
+      </c>
+      <c r="C8">
+        <v>512556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>106574.52</v>
+      </c>
+      <c r="C9">
+        <v>1947905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>280048.86</v>
+      </c>
+      <c r="C10">
+        <v>7154951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1020960.86567164</v>
+      </c>
+      <c r="C11">
+        <v>8412637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF055-11E0-4D77-9E8A-FC2004B09BE0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -938,15 +1216,15 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -971,7 +1249,7 @@
         <v>0.35310070514678954</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1263,7 @@
         <v>0.12720932960510253</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1277,7 @@
         <v>0.31093196868896483</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1291,7 @@
         <v>0.822313380241394</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1305,7 @@
         <v>0.85892865657806394</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1319,7 @@
         <v>4.8780478477478031</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1333,7 @@
         <v>26.222648406028746</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1347,7 @@
         <v>42.943960642814638</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1361,7 @@
         <v>581.86730170249939</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1111,9 +1389,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>103.515824044586</v>
       </c>
@@ -1135,7 +1413,7 @@
         <v>2.5787630081176758</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>126.28515625</v>
       </c>
@@ -1146,7 +1424,7 @@
         <v>2.5877475738525391E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>127.3203125</v>
       </c>
@@ -1157,7 +1435,7 @@
         <v>5.957484245300293E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>127.3359375</v>
       </c>
@@ -1168,7 +1446,7 @@
         <v>3.8029670715332031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>127.337890625</v>
       </c>
@@ -1179,7 +1457,7 @@
         <v>0.1208817958831787</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>127.3701171875</v>
       </c>
@@ -1190,7 +1468,7 @@
         <v>0.21131038665771479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>127.38671875</v>
       </c>
@@ -1201,7 +1479,7 @@
         <v>8.9477062225341797E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>127.41015625</v>
       </c>
@@ -1212,7 +1490,7 @@
         <v>0.14193463325500491</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>127.4166666666667</v>
       </c>
@@ -1223,7 +1501,7 @@
         <v>0.14473795890808111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>127.4296875</v>
       </c>
@@ -1234,7 +1512,7 @@
         <v>0.1204202175140381</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.88084672737527</v>
@@ -1253,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249203A-C201-42FA-A51D-8854FB04119B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1261,9 +1539,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>102.9968979779412</v>
       </c>
@@ -1285,7 +1563,7 @@
         <v>0.61830663681030273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125.21484375</v>
       </c>
@@ -1296,7 +1574,7 @@
         <v>3.2149314880371087E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126.314453125</v>
       </c>
@@ -1307,7 +1585,7 @@
         <v>3.102874755859375E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126.349609375</v>
       </c>
@@ -1318,7 +1596,7 @@
         <v>5.9426069259643548E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>126.41015625</v>
       </c>
@@ -1329,7 +1607,7 @@
         <v>0.1072630882263184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>126.46484375</v>
       </c>
@@ -1340,7 +1618,7 @@
         <v>1.549577713012695E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>126.501953125</v>
       </c>
@@ -1351,7 +1629,7 @@
         <v>4.5912981033325202E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>126.625</v>
       </c>
@@ -1362,7 +1640,7 @@
         <v>0.22098541259765619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>126.8359375</v>
       </c>
@@ -1373,7 +1651,7 @@
         <v>5.7319879531860352E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>126.8645833333333</v>
       </c>
@@ -1384,7 +1662,7 @@
         <v>8.4205389022827148E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>124.05782781862744</v>
@@ -1403,7 +1681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1389ED7-74A4-463E-AA6C-0639DDB8CFD5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1411,9 +1689,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>103.6494419642857</v>
       </c>
@@ -1435,7 +1713,7 @@
         <v>0.64634561538696289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125.98828125</v>
       </c>
@@ -1446,7 +1724,7 @@
         <v>0.16704487800598139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126.7825520833333</v>
       </c>
@@ -1457,7 +1735,7 @@
         <v>0.12557363510131839</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126.9557291666667</v>
       </c>
@@ -1468,7 +1746,7 @@
         <v>0.18551802635192871</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>127.096484375</v>
       </c>
@@ -1479,7 +1757,7 @@
         <v>0.31809353828430181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>127.8120492788462</v>
       </c>
@@ -1490,7 +1768,7 @@
         <v>1.0785951614379881</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>128.671875</v>
       </c>
@@ -1501,7 +1779,7 @@
         <v>1.7866849899291989E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>129.107421875</v>
       </c>
@@ -1512,7 +1790,7 @@
         <v>6.3359260559082031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>129.109375</v>
       </c>
@@ -1523,7 +1801,7 @@
         <v>8.8503360748291016E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>129.109375</v>
       </c>
@@ -1534,7 +1812,7 @@
         <v>0.41841936111450201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>125.42825849931319</v>
@@ -1553,7 +1831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A5CCC-0494-4C5A-8CC7-B565D9FE558C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1561,9 +1839,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>107.204738451087</v>
       </c>
@@ -1585,7 +1863,7 @@
         <v>0.99643707275390625</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>127.8821824596774</v>
       </c>
@@ -1596,7 +1874,7 @@
         <v>1.490606307983398</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>129.65494791666671</v>
       </c>
@@ -1607,7 +1885,7 @@
         <v>0.1040337085723877</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>129.96875</v>
       </c>
@@ -1618,7 +1896,7 @@
         <v>9.0581655502319336E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>132.5342839805825</v>
       </c>
@@ -1629,7 +1907,7 @@
         <v>4.3286480903625488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>135.52256944444451</v>
       </c>
@@ -1640,7 +1918,7 @@
         <v>0.41007804870605469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>135.27734375</v>
       </c>
@@ -1651,7 +1929,7 @@
         <v>1.929521560668945E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>135.72005208333329</v>
       </c>
@@ -1662,7 +1940,7 @@
         <v>0.26069545745849609</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>135.89366319444451</v>
       </c>
@@ -1673,7 +1951,7 @@
         <v>0.5008537769317627</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>135.9140625</v>
       </c>
@@ -1684,7 +1962,7 @@
         <v>2.190446853637695E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>130.55725937802359</v>
@@ -1703,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AE7D61-15CB-49BA-8326-020CEECDDEED}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1711,9 +1989,9 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>104.0916883680556</v>
       </c>
@@ -1735,7 +2013,7 @@
         <v>0.65183591842651367</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>129.53960640822791</v>
       </c>
@@ -1746,7 +2024,7 @@
         <v>3.1973533630371089</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>132.71835937500001</v>
       </c>
@@ -1757,7 +2035,7 @@
         <v>0.65935254096984863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>132.818359375</v>
       </c>
@@ -1768,7 +2046,7 @@
         <v>0.67862606048583984</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>132.82421875</v>
       </c>
@@ -1779,7 +2057,7 @@
         <v>7.3082685470581055E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>132.82421875</v>
       </c>
@@ -1790,7 +2068,7 @@
         <v>0.89425396919250488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>132.82421875</v>
       </c>
@@ -1801,7 +2079,7 @@
         <v>0.37753605842590332</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>132.82421875</v>
       </c>
@@ -1812,7 +2090,7 @@
         <v>0.65785551071166992</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>132.82421875</v>
       </c>
@@ -1823,7 +2101,7 @@
         <v>1.279673099517822</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>132.98671874999999</v>
       </c>
@@ -1834,7 +2112,7 @@
         <v>0.11971735954284669</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>129.62758260262837</v>
@@ -1853,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6198DC14-EBC2-4EB2-B2A5-61C7101CF581}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1861,14 +2139,14 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>115.76706112132349</v>
       </c>
@@ -1890,7 +2168,7 @@
         <v>2.3069319725036621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>130.93283420138891</v>
       </c>
@@ -1901,7 +2179,7 @@
         <v>1.291573286056519</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>131.0005326704545</v>
       </c>
@@ -1912,7 +2190,7 @@
         <v>0.83164119720458984</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>153.48050742574259</v>
       </c>
@@ -1923,7 +2201,7 @@
         <v>22.17168116569519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>168.0390625</v>
       </c>
@@ -1934,7 +2212,7 @@
         <v>4.6981573104858398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>162.53133138020829</v>
       </c>
@@ -1945,7 +2223,7 @@
         <v>1.7872188091278081</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161.5482286509901</v>
       </c>
@@ -1956,7 +2234,7 @@
         <v>3.979996919631958</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>155.71412970430109</v>
       </c>
@@ -1967,7 +2245,7 @@
         <v>3.269960880279541</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>152.06640625</v>
       </c>
@@ -1978,7 +2256,7 @@
         <v>2.4717569351196289E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>153.88894936816939</v>
       </c>
@@ -1989,7 +2267,7 @@
         <v>13.06977510452271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>148.49690432725782</v>
@@ -2001,156 +2279,6 @@
       <c r="C12">
         <f t="shared" si="0"/>
         <v>4.8780478477478031</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2EA72-09FB-4E1A-9252-5EFDF43FDFE1}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>122.12702287946431</v>
-      </c>
-      <c r="B2">
-        <v>132.93359375</v>
-      </c>
-      <c r="C2">
-        <v>3.9802618026733398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>133.64757582720591</v>
-      </c>
-      <c r="B3">
-        <v>138.01953125</v>
-      </c>
-      <c r="C3">
-        <v>5.417022705078125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>226.19940342188201</v>
-      </c>
-      <c r="B4">
-        <v>321.8359375</v>
-      </c>
-      <c r="C4">
-        <v>86.243100881576538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>254.14453125</v>
-      </c>
-      <c r="B5">
-        <v>321.84765625</v>
-      </c>
-      <c r="C5">
-        <v>0.20751953125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>235.7843050373134</v>
-      </c>
-      <c r="B6">
-        <v>296.5234375</v>
-      </c>
-      <c r="C6">
-        <v>72.317363023757935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>220.82477678571431</v>
-      </c>
-      <c r="B7">
-        <v>296.55859375</v>
-      </c>
-      <c r="C7">
-        <v>8.620492696762085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>201.63671875</v>
-      </c>
-      <c r="B8">
-        <v>208.578125</v>
-      </c>
-      <c r="C8">
-        <v>0.63227128982543945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>198.49157072368419</v>
-      </c>
-      <c r="B9">
-        <v>201.0546875</v>
-      </c>
-      <c r="C9">
-        <v>0.87636160850524902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>240.91623940012559</v>
-      </c>
-      <c r="B10">
-        <v>322.0859375</v>
-      </c>
-      <c r="C10">
-        <v>83.289134740829468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>245.14682904411771</v>
-      </c>
-      <c r="B11">
-        <v>322.140625</v>
-      </c>
-      <c r="C11">
-        <v>0.64295578002929688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>AVERAGE(A2:A11)</f>
-        <v>207.89189731195074</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
-        <v>256.15781249999998</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>26.222648406028746</v>
       </c>
     </row>
   </sheetData>

--- a/plot info.xlsx
+++ b/plot info.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malek\Documents\GitHub\Barbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62A5881-6159-4BC3-9E8F-13F64CFD915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D30E5-E490-4D3B-85BF-EAA456076146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
-    <sheet name="STATE_PLOT_INFO" sheetId="13" r:id="rId2"/>
-    <sheet name="MEM_PLOT_INFO" sheetId="11" r:id="rId3"/>
-    <sheet name="max_depth=1" sheetId="1" r:id="rId4"/>
-    <sheet name="max_depth=2" sheetId="2" r:id="rId5"/>
-    <sheet name="max_depth=3" sheetId="3" r:id="rId6"/>
-    <sheet name="max_depth=4" sheetId="4" r:id="rId7"/>
-    <sheet name="max_depth=5" sheetId="5" r:id="rId8"/>
-    <sheet name="max_depth=6" sheetId="6" r:id="rId9"/>
-    <sheet name="max_depth=7" sheetId="7" r:id="rId10"/>
-    <sheet name="max_depth=8" sheetId="8" r:id="rId11"/>
-    <sheet name="max_depth=9" sheetId="9" r:id="rId12"/>
-    <sheet name="max_depth=10" sheetId="10" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId2"/>
+    <sheet name="STATE_PLOT_INFO" sheetId="13" r:id="rId3"/>
+    <sheet name="MEM_PLOT_INFO" sheetId="11" r:id="rId4"/>
+    <sheet name="max_depth=1" sheetId="1" r:id="rId5"/>
+    <sheet name="max_depth=2" sheetId="2" r:id="rId6"/>
+    <sheet name="max_depth=3" sheetId="3" r:id="rId7"/>
+    <sheet name="max_depth=4" sheetId="4" r:id="rId8"/>
+    <sheet name="max_depth=5" sheetId="5" r:id="rId9"/>
+    <sheet name="max_depth=6" sheetId="6" r:id="rId10"/>
+    <sheet name="max_depth=7" sheetId="7" r:id="rId11"/>
+    <sheet name="max_depth=8" sheetId="8" r:id="rId12"/>
+    <sheet name="max_depth=9" sheetId="9" r:id="rId13"/>
+    <sheet name="max_depth=10" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Average Memory Usage (MB)</t>
   </si>
@@ -94,12 +95,30 @@
   <si>
     <t>Peak State Number</t>
   </si>
+  <si>
+    <t>Average Memory Usage (in MB)</t>
+  </si>
+  <si>
+    <t>Peak Memory Usage (in MB)</t>
+  </si>
+  <si>
+    <t>Average States Deleted</t>
+  </si>
+  <si>
+    <t>Peak States Deleted</t>
+  </si>
+  <si>
+    <t>Average Distance</t>
+  </si>
+  <si>
+    <t>Peak Distance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +144,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,13 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,20 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0FEB3-761B-5B4C-87E8-9551A9B6A678}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -470,98 +499,168 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>107.78923828124999</v>
+      </c>
+      <c r="E2">
+        <v>108.42578125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>16.420000000000002</v>
+        <v>15.44</v>
       </c>
       <c r="C3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>108.0418767</v>
+      </c>
+      <c r="E3">
+        <v>108.5859375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>78.14</v>
+        <v>64.040000000000006</v>
       </c>
       <c r="C4">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D4">
+        <v>110.94058336032082</v>
+      </c>
+      <c r="E4">
+        <v>112.34375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>199.24</v>
+        <v>252.42</v>
       </c>
       <c r="C5">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4490</v>
+      </c>
+      <c r="D5">
+        <v>125.19521108779871</v>
+      </c>
+      <c r="E5">
+        <v>144.9140625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>694.3</v>
+        <v>816.66</v>
       </c>
       <c r="C6">
-        <v>9851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9679</v>
+      </c>
+      <c r="D6">
+        <v>142.00120195394945</v>
+      </c>
+      <c r="E6">
+        <v>196.0078125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1804.16</v>
+        <v>3121.5</v>
       </c>
       <c r="C7">
-        <v>28111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42532</v>
+      </c>
+      <c r="D7">
+        <v>173.98702766742093</v>
+      </c>
+      <c r="E7">
+        <v>469.02734375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>16418.66</v>
+        <v>12684.7</v>
       </c>
       <c r="C8">
-        <v>264260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240950</v>
+      </c>
+      <c r="D8">
+        <v>225.16164137050183</v>
+      </c>
+      <c r="E8">
+        <v>2120.9375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>70368.460000000006</v>
+      </c>
+      <c r="C9">
+        <v>1175280</v>
+      </c>
+      <c r="D9">
+        <v>524.09905157251956</v>
+      </c>
+      <c r="E9">
+        <v>10822.13671875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10">
+        <v>710805.08</v>
+      </c>
+      <c r="C10">
+        <v>10444260</v>
+      </c>
+      <c r="D10">
+        <v>3825.7515560014772</v>
+      </c>
+      <c r="E10">
+        <v>29073.46875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,6 +668,161 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6198DC14-EBC2-4EB2-B2A5-61C7101CF581}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>115.76706112132349</v>
+      </c>
+      <c r="B2">
+        <v>129.8203125</v>
+      </c>
+      <c r="C2">
+        <v>2.3069319725036621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>130.93283420138891</v>
+      </c>
+      <c r="B3">
+        <v>130.98046875</v>
+      </c>
+      <c r="C3">
+        <v>1.291573286056519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>131.0005326704545</v>
+      </c>
+      <c r="B4">
+        <v>131.00390625</v>
+      </c>
+      <c r="C4">
+        <v>0.83164119720458984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>153.48050742574259</v>
+      </c>
+      <c r="B5">
+        <v>177.81640625</v>
+      </c>
+      <c r="C5">
+        <v>22.17168116569519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>168.0390625</v>
+      </c>
+      <c r="B6">
+        <v>177.83984375</v>
+      </c>
+      <c r="C6">
+        <v>4.6981573104858398E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>162.53133138020829</v>
+      </c>
+      <c r="B7">
+        <v>163.1875</v>
+      </c>
+      <c r="C7">
+        <v>1.7872188091278081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>161.5482286509901</v>
+      </c>
+      <c r="B8">
+        <v>162.7578125</v>
+      </c>
+      <c r="C8">
+        <v>3.979996919631958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>155.71412970430109</v>
+      </c>
+      <c r="B9">
+        <v>161.48828125</v>
+      </c>
+      <c r="C9">
+        <v>3.269960880279541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>152.06640625</v>
+      </c>
+      <c r="B10">
+        <v>152.06640625</v>
+      </c>
+      <c r="C10">
+        <v>2.4717569351196289E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>153.88894936816939</v>
+      </c>
+      <c r="B11">
+        <v>159.03515625</v>
+      </c>
+      <c r="C11">
+        <v>13.06977510452271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>148.49690432725782</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
+        <v>154.599609375</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4.8780478477478031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A2EA72-09FB-4E1A-9252-5EFDF43FDFE1}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -718,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3CCB0-BFF5-4EAE-A518-BF81F1D8DBCA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -868,7 +1122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ABD6F8-1D99-4695-A0C5-E7C5AF48AE66}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -963,7 +1217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49339928-1083-40D3-8E48-1F77A6F43104}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1064,11 +1318,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3413755-9D73-42A8-9205-1DDCC0BD5761}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1.9573531</v>
+      </c>
+      <c r="E2">
+        <v>16.215256610000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>3.1210311759999998</v>
+      </c>
+      <c r="E3">
+        <v>16.314749880000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6709677-DC1C-427F-8CCF-593B91C1E542}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,12 +1525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF055-11E0-4D77-9E8A-FC2004B09BE0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1531,7 +1848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249203A-C201-42FA-A51D-8854FB04119B}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1681,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1389ED7-74A4-463E-AA6C-0639DDB8CFD5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1831,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A5CCC-0494-4C5A-8CC7-B565D9FE558C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1981,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AE7D61-15CB-49BA-8326-020CEECDDEED}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2129,159 +2446,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6198DC14-EBC2-4EB2-B2A5-61C7101CF581}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>115.76706112132349</v>
-      </c>
-      <c r="B2">
-        <v>129.8203125</v>
-      </c>
-      <c r="C2">
-        <v>2.3069319725036621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>130.93283420138891</v>
-      </c>
-      <c r="B3">
-        <v>130.98046875</v>
-      </c>
-      <c r="C3">
-        <v>1.291573286056519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>131.0005326704545</v>
-      </c>
-      <c r="B4">
-        <v>131.00390625</v>
-      </c>
-      <c r="C4">
-        <v>0.83164119720458984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>153.48050742574259</v>
-      </c>
-      <c r="B5">
-        <v>177.81640625</v>
-      </c>
-      <c r="C5">
-        <v>22.17168116569519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>168.0390625</v>
-      </c>
-      <c r="B6">
-        <v>177.83984375</v>
-      </c>
-      <c r="C6">
-        <v>4.6981573104858398E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>162.53133138020829</v>
-      </c>
-      <c r="B7">
-        <v>163.1875</v>
-      </c>
-      <c r="C7">
-        <v>1.7872188091278081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>161.5482286509901</v>
-      </c>
-      <c r="B8">
-        <v>162.7578125</v>
-      </c>
-      <c r="C8">
-        <v>3.979996919631958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>155.71412970430109</v>
-      </c>
-      <c r="B9">
-        <v>161.48828125</v>
-      </c>
-      <c r="C9">
-        <v>3.269960880279541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>152.06640625</v>
-      </c>
-      <c r="B10">
-        <v>152.06640625</v>
-      </c>
-      <c r="C10">
-        <v>2.4717569351196289E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>153.88894936816939</v>
-      </c>
-      <c r="B11">
-        <v>159.03515625</v>
-      </c>
-      <c r="C11">
-        <v>13.06977510452271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>AVERAGE(A2:A11)</f>
-        <v>148.49690432725782</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
-        <v>154.599609375</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>4.8780478477478031</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>